--- a/data-raw/metadata/F4F2019_FishGrowth_AttributesTable.xlsx
+++ b/data-raw/metadata/F4F2019_FishGrowth_AttributesTable.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobshikora\Documents\CalTrout\BORCharter\DataTransfer\2019Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\fish-food-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C396838D-0B85-44C7-9C08-DA799ED30961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD6807-5385-475C-A057-AF48ED46BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{739F65F0-C634-4850-9ECE-CC3E3F5B8CFF}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="15375" windowHeight="15225" xr2:uid="{739F65F0-C634-4850-9ECE-CC3E3F5B8CFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="attribute" sheetId="1" r:id="rId1"/>
+    <sheet name="code_definitions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -52,12 +44,6 @@
   </si>
   <si>
     <t>domain</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>text_pattern</t>
   </si>
   <si>
     <t>type</t>
@@ -144,10 +130,19 @@
     <t>weight of fish measured in grams</t>
   </si>
   <si>
-    <t>millimeters</t>
+    <t>code</t>
   </si>
   <si>
-    <t>grams</t>
+    <t>definitions</t>
+  </si>
+  <si>
+    <t>attribute_name</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>gram</t>
   </si>
 </sst>
 </file>
@@ -516,21 +511,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A4BE3-4952-4255-B475-5B6463ACF1E0}">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,50 +567,42 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:1022" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" t="s">
-        <v>19</v>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
+      <c r="L2" t="s">
+        <v>17</v>
       </c>
-      <c r="O2" s="2">
+      <c r="M2" s="2">
         <v>43417</v>
       </c>
-      <c r="P2" s="3">
+      <c r="N2" s="3">
         <v>43592</v>
       </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1623,29 +1609,25 @@
       <c r="AMF2" s="1"/>
       <c r="AMG2" s="1"/>
       <c r="AMH2" s="1"/>
-      <c r="AMI2" s="1"/>
-      <c r="AMJ2" s="1"/>
     </row>
-    <row r="3" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2661,38 +2643,34 @@
       <c r="AMF3" s="1"/>
       <c r="AMG3" s="1"/>
       <c r="AMH3" s="1"/>
-      <c r="AMI3" s="1"/>
-      <c r="AMJ3" s="1"/>
     </row>
-    <row r="4" spans="1:1024" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -3699,48 +3677,44 @@
       <c r="AMF4" s="1"/>
       <c r="AMG4" s="1"/>
       <c r="AMH4" s="1"/>
-      <c r="AMI4" s="1"/>
-      <c r="AMJ4" s="1"/>
     </row>
-    <row r="5" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1">
+      <c r="M5" s="1">
         <v>41</v>
       </c>
-      <c r="P5" s="1">
+      <c r="N5" s="1">
         <v>80</v>
       </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -4747,48 +4721,44 @@
       <c r="AMF5" s="1"/>
       <c r="AMG5" s="1"/>
       <c r="AMH5" s="1"/>
-      <c r="AMI5" s="1"/>
-      <c r="AMJ5" s="1"/>
     </row>
-    <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1022" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="M6" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P6" s="1">
+      <c r="N6" s="1">
         <v>5.56</v>
       </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5795,15 +5765,13 @@
       <c r="AMF6" s="1"/>
       <c r="AMG6" s="1"/>
       <c r="AMH6" s="1"/>
-      <c r="AMI6" s="1"/>
-      <c r="AMJ6" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6" xr:uid="{7086E644-3855-4A19-9531-9CBDFA362281}">
       <formula1>"string,boolean,decimal,float,double,duration,dateTime,time,date,gYearMonth,gYear,gMonthDay,gDay,gMonth"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K6" xr:uid="{B23E90DD-D7D1-4245-9278-6A9CF5B151C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6" xr:uid="{B23E90DD-D7D1-4245-9278-6A9CF5B151C6}">
       <formula1>"natural,whole,interger,real"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D6" xr:uid="{9FA4C469-3DA8-4AA3-8BC7-A6DC36648E4E}">
@@ -5812,10 +5780,36 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6" xr:uid="{A57FFFA7-014D-458F-8B16-644F43EBD83B}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I6" xr:uid="{C55CE7A2-259F-48B0-8852-E92E301A3A7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6" xr:uid="{C55CE7A2-259F-48B0-8852-E92E301A3A7E}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD149FE3-A645-4D4F-9B0B-48D54DD69E72}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>